--- a/Ludo.xlsx
+++ b/Ludo.xlsx
@@ -320,7 +320,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,18 +361,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -389,10 +381,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -405,31 +393,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -473,16 +437,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>152640</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>318600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -495,8 +459,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9593640" y="929520"/>
-          <a:ext cx="2527560" cy="2491560"/>
+          <a:off x="2511720" y="2948400"/>
+          <a:ext cx="2527200" cy="2491200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -519,7 +483,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -565,11 +529,11 @@
         <v>2</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="H2" s="10" t="n">
+      <c r="H2" s="9" t="n">
         <v>57</v>
       </c>
       <c r="I2" s="9" t="n">
@@ -577,26 +541,26 @@
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="0"/>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="M2" s="7"/>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="13"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
-      <c r="B3" s="14"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="15"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="16" t="n">
+      <c r="F3" s="9"/>
+      <c r="G3" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="H3" s="10" t="n">
+      <c r="H3" s="9" t="n">
         <v>58</v>
       </c>
       <c r="I3" s="9" t="n">
@@ -604,26 +568,26 @@
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="0"/>
-      <c r="L3" s="14"/>
+      <c r="L3" s="12"/>
       <c r="M3" s="9"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="n">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="9" t="n">
         <v>59</v>
       </c>
       <c r="I4" s="9" t="n">
@@ -631,14 +595,14 @@
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="0"/>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="21" t="s">
+      <c r="M4" s="16"/>
+      <c r="N4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="13"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
@@ -646,11 +610,11 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="n">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="H5" s="9" t="n">
         <v>60</v>
       </c>
       <c r="I5" s="9" t="n">
@@ -659,9 +623,9 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="13"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
@@ -669,11 +633,11 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="n">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="9" t="n">
         <v>61</v>
       </c>
       <c r="I6" s="9" t="n">
@@ -682,9 +646,9 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="13"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
@@ -702,11 +666,11 @@
       <c r="E7" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10" t="n">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="n">
         <v>73</v>
       </c>
       <c r="I7" s="9"/>
@@ -719,13 +683,13 @@
       <c r="L7" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="M7" s="16" t="n">
+      <c r="M7" s="14" t="n">
         <v>22</v>
       </c>
       <c r="N7" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="O7" s="13" t="n">
+      <c r="O7" s="11" t="n">
         <v>24</v>
       </c>
     </row>
@@ -733,25 +697,25 @@
       <c r="A8" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="9" t="n">
         <v>52</v>
       </c>
-      <c r="C8" s="22" t="n">
+      <c r="C8" s="18" t="n">
         <v>53</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="9" t="n">
         <v>54</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="9" t="n">
         <v>55</v>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="F8" s="9" t="n">
         <v>56</v>
       </c>
-      <c r="G8" s="10" t="n">
+      <c r="G8" s="9" t="n">
         <v>72</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="9" t="n">
         <v>74</v>
       </c>
@@ -764,13 +728,13 @@
       <c r="L8" s="9" t="n">
         <v>64</v>
       </c>
-      <c r="M8" s="10" t="n">
+      <c r="M8" s="9" t="n">
         <v>63</v>
       </c>
-      <c r="N8" s="10" t="n">
+      <c r="N8" s="9" t="n">
         <v>62</v>
       </c>
-      <c r="O8" s="13" t="n">
+      <c r="O8" s="11" t="n">
         <v>25</v>
       </c>
     </row>
@@ -781,20 +745,20 @@
       <c r="B9" s="9" t="n">
         <v>49</v>
       </c>
-      <c r="C9" s="16" t="n">
+      <c r="C9" s="14" t="n">
         <v>48</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="9" t="n">
         <v>47</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="n">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="n">
         <v>75</v>
       </c>
       <c r="I9" s="9"/>
@@ -807,27 +771,27 @@
       <c r="L9" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="M9" s="10" t="n">
+      <c r="M9" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="N9" s="10" t="n">
+      <c r="N9" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="O9" s="13" t="n">
+      <c r="O9" s="11" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="n">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="H10" s="10" t="n">
+      <c r="H10" s="9" t="n">
         <v>71</v>
       </c>
       <c r="I10" s="9" t="n">
@@ -836,240 +800,240 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="13"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="n">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="H11" s="10" t="n">
+      <c r="H11" s="9" t="n">
         <v>70</v>
       </c>
-      <c r="I11" s="10" t="n">
+      <c r="I11" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="0"/>
       <c r="M11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O11" s="13"/>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="n">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="H12" s="10" t="n">
+      <c r="H12" s="9" t="n">
         <v>69</v>
       </c>
-      <c r="I12" s="10" t="n">
+      <c r="I12" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="0"/>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="12" t="s">
+      <c r="M12" s="7"/>
+      <c r="N12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O12" s="13"/>
+      <c r="O12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="17"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="n">
+      <c r="B13" s="12"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="13"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="H13" s="10" t="n">
+      <c r="H13" s="9" t="n">
         <v>68</v>
       </c>
-      <c r="I13" s="16" t="n">
+      <c r="I13" s="14" t="n">
         <v>35</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="0"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="13"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="n">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="H14" s="10" t="n">
+      <c r="H14" s="9" t="n">
         <v>67</v>
       </c>
-      <c r="I14" s="10" t="n">
+      <c r="I14" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="0"/>
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="27"/>
-      <c r="N14" s="21" t="s">
+      <c r="M14" s="16"/>
+      <c r="N14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="O14" s="13"/>
+      <c r="O14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29" t="n">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20" t="n">
         <v>39</v>
       </c>
-      <c r="H15" s="29" t="n">
+      <c r="H15" s="20" t="n">
         <v>38</v>
       </c>
-      <c r="I15" s="29" t="n">
+      <c r="I15" s="20" t="n">
         <v>37</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="30"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="25.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="D20" s="10" t="s">
+      <c r="B20" s="9"/>
+      <c r="D20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="9"/>
       <c r="H20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="33"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="25.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="25.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="25.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="32"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="22" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1096,7 +1060,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1119,7 +1083,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
